--- a/medicine/Handicap/Grigris/Grigris.xlsx
+++ b/medicine/Handicap/Grigris/Grigris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grigris (parfois typographié GriGris) est un film franco-tchadien écrit et réalisé par Mahamat Saleh Haroun sorti en 2013.
-Le film est présenté en sélection officielle au festival de Cannes 2013[1]. Il est également sélectionné pour représenter le Tchad aux Oscars du cinéma 2014 dans la catégorie meilleur film en langue étrangère[2].
+Le film est présenté en sélection officielle au festival de Cannes 2013. Il est également sélectionné pour représenter le Tchad aux Oscars du cinéma 2014 dans la catégorie meilleur film en langue étrangère.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré sa jambe paralysée qui le handicape, Souleymane, alias Grigris, un jeune tchadien natif d'un milieu pauvre, qui travaille pour son beau-père photographe, rêve de devenir danseur. Il danse régulièrement dans une boîte de nuit en improvisant des chorégraphies au son de la musique pop, et utilise sa jambe paralysée comme un jouet désarticulé et suscite parmi les clients une admiration qui lui vaut un beau succès et une certaine renommée locale. Mimi, une jeune et svelte prostituée franco-tchadienne, qui rêve de devenir mannequin et qui admire elle aussi la danse de Grigris, fait une séance de photos promotionnelle dans son atelier. Des sentiments s'installent entre ces deux naufragés de la vie.
 Le beau-père de Souleymane, que celui-ci considere son père, tombe soudain malade. La protection sociale étant inexistante au Tchad, la famille devra payer une somme importante à l'hôpital pour qu'il puisse bénéficier de soins. Souleymane, totalement démuni, décide de s'adresser à Moussa, un caïd mafieux, pour obtenir de lui un travail dans le trafic d'essence, fort courant dans le pays, afin de trouver l'argent nécessaire pour financer l'hôpital. Une première expérience de transport de bidons à la nage par le fleuve tourne court, car Grigris connaît une certaine incapacité physique à cause de sa jambe. Sur le point d'être évincé, Grigris obtient cependant un poste de conducteur de quatre-quatre pour le transport de bidons, obtenu grâce à son savoir-faire dans la conduite des voitures. Mais au lieu de mener la marchandise à bon port, il prémédite de la détourner en empochant un bon profit financier, qu'il dédie aussitôt aux soins de son beau-père. 
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Grigris
 Réalisation : Mahamat Saleh Haroun
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Souleymane Démé : Souleymane, alias « Grigris », le danseur handicapé
 Anaïs Monory : Mimi, la prostituée et petite amie de Grigris
@@ -641,11 +659,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 2013 : Prix Vulcain de la meilleure photographie pour Antoine Héberlé (sélection officielle)
-Festival international du film francophone de Namur 2013 : Bayard d'or de la meilleure photographie
-Nominations et sélections
-Festival du film de Sydney 2013
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2013 : Prix Vulcain de la meilleure photographie pour Antoine Héberlé (sélection officielle)
+Festival international du film francophone de Namur 2013 : Bayard d'or de la meilleure photographie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grigris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grigris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival du film de Sydney 2013
 Festival international du film de Vancouver 2013</t>
         </is>
       </c>
